--- a/CashFlow/SO_cashflow.xlsx
+++ b/CashFlow/SO_cashflow.xlsx
@@ -4380,10 +4380,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>36000000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>74000000.0</v>
